--- a/traverse.xlsx
+++ b/traverse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\PycharmProjects\traversingComputation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Progamming\Python Projects\traversing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Station</t>
   </si>
@@ -47,16 +47,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Bearing AF</t>
-  </si>
-  <si>
     <t>Distance</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Adjustment</t>
@@ -72,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +71,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +384,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,16 +405,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -431,11 +422,11 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>(115)+(11/60)+(20/3600)</f>
-        <v>115.1888888888889</v>
+        <f>(81)+(11/60)+(50/3600)</f>
+        <v>81.197222222222223</v>
       </c>
       <c r="C2">
-        <v>85.974000000000004</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -443,11 +434,11 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>(95)+(0)+(10/3600)</f>
-        <v>95.00277777777778</v>
+        <f>(120)+(25/60)+(50/3600)</f>
+        <v>120.43055555555556</v>
       </c>
       <c r="C3">
-        <v>131.30799999999999</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -455,11 +446,11 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>129+(49/60)+(10/3600)</f>
-        <v>129.81944444444443</v>
+        <f>(149)+(33/60)+(50/3600)</f>
+        <v>149.5638888888889</v>
       </c>
       <c r="C4">
-        <v>60.366999999999997</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -467,11 +458,11 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>130+(36/60)</f>
-        <v>130.6</v>
+        <f>95+(41/60)+(50/3600)</f>
+        <v>95.697222222222223</v>
       </c>
       <c r="C5">
-        <v>57.481999999999999</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,37 +470,15 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>110+(29/60)+(50/3600)</f>
-        <v>110.49722222222222</v>
+        <f>93+(5/60)+(50/3600)</f>
+        <v>93.097222222222214</v>
       </c>
       <c r="C6">
-        <v>105.34399999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f>138+(54/60)+(30/3600)</f>
-        <v>138.90833333333333</v>
-      </c>
-      <c r="C7">
-        <v>74.495999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>70</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
